--- a/Chain_Joystick/M5Stack-Chain-Joystick-通讯协议-V1.xlsx
+++ b/Chain_Joystick/M5Stack-Chain-Joystick-通讯协议-V1.xlsx
@@ -27,9 +27,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="97">
-  <si>
-    <t>M5Stack Chain-Encoder Protocol</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="102">
+  <si>
+    <t>M5Stack Chain-Joystick Protocol</t>
   </si>
   <si>
     <t>All packets start with 0xAA 0x55 and end with 0x55 0xAA</t>
@@ -72,7 +72,10 @@
     <t>Data5</t>
   </si>
   <si>
-    <t>设置rgb值</t>
+    <t>Data6</t>
+  </si>
+  <si>
+    <t>设置RGB值</t>
   </si>
   <si>
     <t>指令包格式</t>
@@ -117,16 +120,16 @@
     <t>指令详解</t>
   </si>
   <si>
-    <t xml:space="preserve"> （1）功能说明：设置rgb值。
+    <t xml:space="preserve"> （1）功能说明：设置RGB值。
  （2）输入参数：Index_id（设备下标ID）、RGB值
  （3）返回参数：Operation_status
  （4）指令代码：0x20
-   注2：Operation_status 操作状态
+   注1：Operation_status 操作状态
             0：操作失败
             1：操作成功</t>
   </si>
   <si>
-    <t>获取rgb值</t>
+    <t>获取RGB值</t>
   </si>
   <si>
     <t>0x03</t>
@@ -135,13 +138,13 @@
     <t>0x21</t>
   </si>
   <si>
-    <t xml:space="preserve"> （1）功能说明：获取rgb值。
+    <t xml:space="preserve"> （1）功能说明：获取RGB值。
  （2）输入参数：Index_id（设备下标ID）
  （3）返回参数：RGB值
  （4）指令代码：0x21</t>
   </si>
   <si>
-    <t>设置rgb灯亮度</t>
+    <t>设置RGB灯亮度</t>
   </si>
   <si>
     <t>0x22</t>
@@ -150,7 +153,7 @@
     <t>Light</t>
   </si>
   <si>
-    <t xml:space="preserve"> （1）功能说明：设置rgb灯亮度。
+    <t xml:space="preserve"> （1）功能说明：设置RGB灯亮度。
  （2）输入参数：Index_id（设备下标ID）、Light（RGB亮度）
  （3）返回参数：Operation_status
  （4）指令代码：0x22
@@ -160,13 +163,13 @@
    注2：设置成功即刻生效并且掉电不丢失</t>
   </si>
   <si>
-    <t>获取rgb灯亮度</t>
+    <t>获取RGB灯亮度</t>
   </si>
   <si>
     <t>0x23</t>
   </si>
   <si>
-    <t xml:space="preserve"> （1）功能说明：获取rgb灯亮度。
+    <t xml:space="preserve"> （1）功能说明：获取RGB灯亮度。
  （2）输入参数：Index_id（设备下标ID）
  （3）返回参数：Light（RGB亮度）
  （4）指令代码：0x23</t>
@@ -198,7 +201,7 @@
  （3）返回参数：Joystick值
  （4）指令代码：0x30
     注1：JoystickX_ADC = （int16_t) ( JoystickX_ADC__High &lt;&lt; 8)  | JoystickX_ADC__Low
-    注2：JoystickX_ADC = （int16_t) ( JoystickY_ADC__High &lt;&lt; 8)  | JoystickY_ADC__Low</t>
+    注2：JoystickY_ADC = （int16_t) ( JoystickY_ADC__High &lt;&lt; 8)  | JoystickY_ADC__Low</t>
   </si>
   <si>
     <t>获取Joystick 8ADC</t>
@@ -236,25 +239,33 @@
   <si>
     <t xml:space="preserve"> （1）功能说明：获取mapped范围值，是一个转换区间，以Joystick ADC值映射，映射得到mapped后的16bit值。
  （2）输入参数：Index_id（设备下标ID）
- （3）返回参数：Mapped value
+ （3）返回参数：Mapped value（Map值）
  （4）指令代码：0x32
    注1：Mapped value 16 byte 
-           byte0: 
-           byte1: 
-           byte2:  
-           byte3: 
-           byte4: 
-           byte5: 
-           byte6: 
-           byte7: 
-           byte8: 
-           byte9: 
-           byte10: 
-           byte11: 
-           byte12: 
-           byte13: 
-           byte14: 
-           byte15: </t>
+           byte0: Joy X ADC Negative Min Value-L
+           byte1: Joy X ADC Negative Min Value-H
+           byte2: Joy X ADC Negative Max Value-L
+           byte3: Joy X ADC Negative Max Value-H
+           byte4: Joy X ADC Positive Min Value-L
+           byte5: Joy X ADC Positive Min Value-H
+           byte6: Joy X ADC Positive Max Value-L
+           byte7: Joy X ADC Positive Max Value-H
+           byte8: Joy Y ADC Negative Min Value-L
+           byte9: Joy Y ADC Negative Min Value-H
+           byte10: Joy Y ADC Negative Max Value-L
+           byte11: Joy Y ADC Negative Max Value-H
+           byte12: Joy Y ADC Positive Min Value-L
+           byte13: Joy Y ADC Positive Min Value-H
+           byte14: Joy Y ADC Positive Max Value-L
+           byte15: Joy Y ADC Positive Max Value-H
+   注2：Joy X ADC Negative Min Value: The minimum ADC value on the negative half-axis of X.
+   注3：Joy X ADC Negative Max Value: The maximum ADC value on the negative half-axis of X.
+   注4：Joy X ADC Positive Min Value:The minimum ADC value on the positive half-axis of X.
+   注5：Joy X ADC Positive Max Value:The maximum ADC value on the positive half-axis of X.
+   注6：Joy Y ADC Negative Min Value: The minimum ADC value on the negative half-axis of Y.
+   注7：Joy Y ADC Negative Max Value: The maximum ADC value on the negative half-axis of Y.
+   注8：Joy Y ADC Positive Min Value:The minimum ADC value on the positive half-axis of Y.
+   注9：Joy Y ADC Positive Max Value:The maximum ADC value on the positive half-axis of Y.</t>
   </si>
   <si>
     <t>设置mapped值</t>
@@ -266,18 +277,41 @@
     <t>0x33</t>
   </si>
   <si>
+    <t xml:space="preserve"> （1）功能说明：设置mapped值。
+ （2）输入参数：Index_id（设备下标ID）、Mapped value（Map值）
+ （3）返回参数：Operation_status
+ （4）指令代码：0x33
+   注1：Operation_status 操作状态
+            0：操作失败
+            1：操作成功</t>
+  </si>
+  <si>
     <t>获取mapped后的16bit值</t>
+  </si>
+  <si>
+    <t>0x34</t>
   </si>
   <si>
     <t xml:space="preserve"> （1）功能说明：获取Joystick 16ADC。
  （2）输入参数：Index_id（设备下标ID）
- （3）返回参数：Joystick值
- （4）指令代码：0x30
+ （3）返回参数：Joystick值（-4095-4095)
+ （4）指令代码：0x34
     注1：JoystickX_ADC = （uint16_t) ( JoystickX_ADC__High &lt;&lt; 8)  | JoystickX_ADC__Low
     注2：JoystickX_ADC = （uint16_t) ( JoystickY_ADC__High &lt;&lt; 8)  | JoystickY_ADC__Low</t>
   </si>
   <si>
     <t>获取mapped后的8bit值</t>
+  </si>
+  <si>
+    <t>0x35</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> （1）功能说明：获取Joystick 8ADC。
+ （2）输入参数：Index_id（设备下标ID）
+ （3）返回参数：Joystick值（-128~127）
+ （4）指令代码：0x35
+   注1：JoystickX_ADC = （int8_t）JoystickX_ADC
+   注2：JoystickY_ADC = （int8_t）JoystickY_ADC</t>
   </si>
   <si>
     <t>按键按压</t>
@@ -353,9 +387,6 @@
     <t>枚举请求</t>
   </si>
   <si>
-    <t>0xFF</t>
-  </si>
-  <si>
     <t>0xFC</t>
   </si>
   <si>
@@ -366,6 +397,9 @@
   </si>
   <si>
     <t>心跳包</t>
+  </si>
+  <si>
+    <t>0xFF</t>
   </si>
   <si>
     <t>0xFD</t>
@@ -600,7 +634,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -621,6 +655,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFDE9D9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -824,7 +870,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -960,6 +1006,21 @@
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1283,7 +1344,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1295,119 +1356,119 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1465,10 +1526,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1477,94 +1541,88 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1890,8 +1948,8 @@
   </sheetPr>
   <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="355" zoomScaleNormal="355" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:L25"/>
+    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49:L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2833333333333" defaultRowHeight="14.25"/>
@@ -1900,12 +1958,12 @@
     <col min="2" max="2" width="4.425" customWidth="1"/>
     <col min="3" max="3" width="3.53333333333333" customWidth="1"/>
     <col min="4" max="4" width="3.70833333333333" customWidth="1"/>
-    <col min="5" max="5" width="2.85" customWidth="1"/>
-    <col min="6" max="6" width="3.08333333333333" customWidth="1"/>
-    <col min="7" max="7" width="6.90833333333333" customWidth="1"/>
-    <col min="8" max="8" width="6.325" customWidth="1"/>
-    <col min="9" max="9" width="7.05" customWidth="1"/>
-    <col min="10" max="10" width="6.69166666666667" customWidth="1"/>
+    <col min="5" max="5" width="3.68333333333333" customWidth="1"/>
+    <col min="6" max="6" width="4.01666666666667" customWidth="1"/>
+    <col min="7" max="7" width="6.09166666666667" customWidth="1"/>
+    <col min="8" max="8" width="5.80833333333333" customWidth="1"/>
+    <col min="9" max="9" width="5.50833333333333" customWidth="1"/>
+    <col min="10" max="10" width="5.93333333333333" customWidth="1"/>
     <col min="11" max="11" width="5.48333333333333" customWidth="1"/>
     <col min="12" max="12" width="7.98333333333333" customWidth="1"/>
   </cols>
@@ -1972,11 +2030,17 @@
         <v>5</v>
       </c>
       <c r="I3" s="8">
-        <v>3</v>
-      </c>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="44"/>
+        <v>6</v>
+      </c>
+      <c r="J3" s="43">
+        <v>7</v>
+      </c>
+      <c r="K3" s="43">
+        <v>8</v>
+      </c>
+      <c r="L3" s="44">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" ht="10.3" customHeight="1" spans="1:12">
       <c r="A4" s="11"/>
@@ -2008,79 +2072,81 @@
       <c r="K4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="45"/>
-    </row>
-    <row r="5" customFormat="1" ht="16" customHeight="1" spans="1:12">
+      <c r="L4" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" ht="22" customHeight="1" spans="1:12">
       <c r="A5" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="46"/>
+      <c r="L5" s="47"/>
+    </row>
+    <row r="6" customFormat="1" ht="21" customHeight="1" spans="1:12">
+      <c r="A6" s="16"/>
+      <c r="B6" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="E6" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="F6" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="47"/>
-      <c r="L5" s="48"/>
-    </row>
-    <row r="6" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A6" s="16"/>
-      <c r="B6" s="21" t="s">
+      <c r="G6" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="25" t="s">
-        <v>23</v>
-      </c>
       <c r="I6" s="31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J6" s="31"/>
       <c r="K6" s="31"/>
-      <c r="L6" s="49"/>
-    </row>
-    <row r="7" customFormat="1" ht="46" customHeight="1" spans="1:12">
+      <c r="L6" s="48"/>
+    </row>
+    <row r="7" customFormat="1" ht="51" customHeight="1" spans="1:12">
       <c r="A7" s="26"/>
       <c r="B7" s="27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
@@ -2090,79 +2156,79 @@
       <c r="I7" s="29"/>
       <c r="J7" s="29"/>
       <c r="K7" s="29"/>
-      <c r="L7" s="50"/>
-    </row>
-    <row r="8" customFormat="1" ht="20" customHeight="1" spans="1:12">
+      <c r="L7" s="49"/>
+    </row>
+    <row r="8" customFormat="1" ht="22" customHeight="1" spans="1:12">
       <c r="A8" s="30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="24" t="s">
-        <v>32</v>
+      <c r="E8" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>33</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J8" s="31"/>
       <c r="K8" s="31"/>
-      <c r="L8" s="49"/>
-    </row>
-    <row r="9" customFormat="1" ht="20" customHeight="1" spans="1:12">
+      <c r="L8" s="48"/>
+    </row>
+    <row r="9" customFormat="1" ht="25" customHeight="1" spans="1:12">
       <c r="A9" s="16"/>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="25" t="s">
-        <v>23</v>
-      </c>
       <c r="K9" s="31"/>
-      <c r="L9" s="49"/>
-    </row>
-    <row r="10" customFormat="1" ht="31" customHeight="1" spans="1:12">
+      <c r="L9" s="48"/>
+    </row>
+    <row r="10" customFormat="1" ht="37" customHeight="1" spans="1:12">
       <c r="A10" s="26"/>
       <c r="B10" s="27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" s="29"/>
       <c r="E10" s="29"/>
@@ -2172,77 +2238,77 @@
       <c r="I10" s="29"/>
       <c r="J10" s="29"/>
       <c r="K10" s="29"/>
-      <c r="L10" s="50"/>
-    </row>
-    <row r="11" customFormat="1" ht="19" customHeight="1" spans="1:12">
+      <c r="L10" s="49"/>
+    </row>
+    <row r="11" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A11" s="30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="24" t="s">
-        <v>35</v>
+      <c r="E11" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>36</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I11" s="31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J11" s="31"/>
       <c r="K11" s="31"/>
-      <c r="L11" s="49"/>
-    </row>
-    <row r="12" customFormat="1" ht="18" customHeight="1" spans="1:12">
+      <c r="L11" s="48"/>
+    </row>
+    <row r="12" customFormat="1" ht="24" customHeight="1" spans="1:12">
       <c r="A12" s="16"/>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="25" t="s">
-        <v>23</v>
-      </c>
       <c r="I12" s="31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J12" s="31"/>
       <c r="K12" s="31"/>
-      <c r="L12" s="49"/>
-    </row>
-    <row r="13" customFormat="1" ht="56" customHeight="1" spans="1:12">
+      <c r="L12" s="48"/>
+    </row>
+    <row r="13" customFormat="1" ht="63" customHeight="1" spans="1:12">
       <c r="A13" s="26"/>
       <c r="B13" s="27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="29"/>
@@ -2252,77 +2318,77 @@
       <c r="I13" s="29"/>
       <c r="J13" s="29"/>
       <c r="K13" s="29"/>
-      <c r="L13" s="50"/>
-    </row>
-    <row r="14" customFormat="1" ht="17" customHeight="1" spans="1:12">
+      <c r="L13" s="49"/>
+    </row>
+    <row r="14" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A14" s="30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="24" t="s">
-        <v>39</v>
+      <c r="E14" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>40</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I14" s="31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J14" s="31"/>
       <c r="K14" s="31"/>
-      <c r="L14" s="49"/>
-    </row>
-    <row r="15" customFormat="1" ht="17" customHeight="1" spans="1:12">
+      <c r="L14" s="48"/>
+    </row>
+    <row r="15" customFormat="1" ht="20" customHeight="1" spans="1:12">
       <c r="A15" s="16"/>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="25" t="s">
-        <v>23</v>
-      </c>
       <c r="I15" s="31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J15" s="31"/>
       <c r="K15" s="31"/>
-      <c r="L15" s="49"/>
-    </row>
-    <row r="16" customFormat="1" ht="33" customHeight="1" spans="1:12">
+      <c r="L15" s="48"/>
+    </row>
+    <row r="16" customFormat="1" ht="36" customHeight="1" spans="1:12">
       <c r="A16" s="26"/>
       <c r="B16" s="27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D16" s="29"/>
       <c r="E16" s="29"/>
@@ -2332,77 +2398,77 @@
       <c r="I16" s="29"/>
       <c r="J16" s="29"/>
       <c r="K16" s="29"/>
-      <c r="L16" s="50"/>
-    </row>
-    <row r="17" customFormat="1" ht="18" customHeight="1" spans="1:12">
+      <c r="L16" s="49"/>
+    </row>
+    <row r="17" customFormat="1" ht="22" customHeight="1" spans="1:12">
       <c r="A17" s="30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="24" t="s">
-        <v>42</v>
+      <c r="E17" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>43</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H17" s="31"/>
       <c r="I17" s="31"/>
       <c r="J17" s="31"/>
       <c r="K17" s="31"/>
-      <c r="L17" s="49"/>
-    </row>
-    <row r="18" customFormat="1" ht="18" customHeight="1" spans="1:12">
+      <c r="L17" s="48"/>
+    </row>
+    <row r="18" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A18" s="16"/>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="J18" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="K18" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="I18" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="J18" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="K18" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="L18" s="49"/>
-    </row>
-    <row r="19" customFormat="1" ht="41" customHeight="1" spans="1:12">
+      <c r="L18" s="48"/>
+    </row>
+    <row r="19" customFormat="1" ht="46" customHeight="1" spans="1:12">
       <c r="A19" s="26"/>
       <c r="B19" s="27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
@@ -2412,73 +2478,73 @@
       <c r="I19" s="29"/>
       <c r="J19" s="29"/>
       <c r="K19" s="29"/>
-      <c r="L19" s="50"/>
-    </row>
-    <row r="20" customFormat="1" ht="18" customHeight="1" spans="1:12">
+      <c r="L19" s="49"/>
+    </row>
+    <row r="20" customFormat="1" ht="22" customHeight="1" spans="1:12">
       <c r="A20" s="30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="24" t="s">
-        <v>50</v>
+      <c r="E20" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>51</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
       <c r="J20" s="31"/>
       <c r="K20" s="31"/>
-      <c r="L20" s="49"/>
-    </row>
-    <row r="21" customFormat="1" ht="18" customHeight="1" spans="1:12">
+      <c r="L20" s="48"/>
+    </row>
+    <row r="21" customFormat="1" ht="21" customHeight="1" spans="1:12">
       <c r="A21" s="16"/>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="H21" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="I21" s="25" t="s">
-        <v>23</v>
       </c>
       <c r="J21" s="31"/>
       <c r="K21" s="31"/>
-      <c r="L21" s="49"/>
-    </row>
-    <row r="22" customFormat="1" ht="31" customHeight="1" spans="1:12">
+      <c r="L21" s="48"/>
+    </row>
+    <row r="22" customFormat="1" ht="39" customHeight="1" spans="1:12">
       <c r="A22" s="26"/>
       <c r="B22" s="27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D22" s="29"/>
       <c r="E22" s="29"/>
@@ -2488,71 +2554,71 @@
       <c r="I22" s="29"/>
       <c r="J22" s="29"/>
       <c r="K22" s="29"/>
-      <c r="L22" s="50"/>
-    </row>
-    <row r="23" customFormat="1" ht="18" customHeight="1" spans="1:12">
+      <c r="L22" s="49"/>
+    </row>
+    <row r="23" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A23" s="30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="24" t="s">
-        <v>56</v>
+      <c r="E23" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H23" s="31"/>
       <c r="I23" s="31"/>
       <c r="J23" s="31"/>
       <c r="K23" s="31"/>
-      <c r="L23" s="49"/>
+      <c r="L23" s="48"/>
     </row>
     <row r="24" customFormat="1" ht="18" customHeight="1" spans="1:12">
       <c r="A24" s="16"/>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="H24" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="G24" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="H24" s="25" t="s">
-        <v>23</v>
       </c>
       <c r="I24" s="31"/>
       <c r="J24" s="31"/>
       <c r="K24" s="31"/>
-      <c r="L24" s="49"/>
-    </row>
-    <row r="25" customFormat="1" ht="135" customHeight="1" spans="1:12">
+      <c r="L24" s="48"/>
+    </row>
+    <row r="25" customFormat="1" ht="185" customHeight="1" spans="1:12">
       <c r="A25" s="26"/>
       <c r="B25" s="27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D25" s="29"/>
       <c r="E25" s="29"/>
@@ -2562,72 +2628,74 @@
       <c r="I25" s="29"/>
       <c r="J25" s="29"/>
       <c r="K25" s="29"/>
-      <c r="L25" s="50"/>
-    </row>
-    <row r="26" customFormat="1" ht="18" customHeight="1" spans="1:12">
+      <c r="L25" s="49"/>
+    </row>
+    <row r="26" customFormat="1" ht="21" customHeight="1" spans="1:12">
       <c r="A26" s="30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="24" t="s">
-        <v>62</v>
+      <c r="E26" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>63</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I26" s="31"/>
       <c r="J26" s="31"/>
       <c r="K26" s="31"/>
-      <c r="L26" s="49"/>
-    </row>
-    <row r="27" customFormat="1" ht="18" customHeight="1" spans="1:12">
+      <c r="L26" s="48"/>
+    </row>
+    <row r="27" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A27" s="16"/>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="H27" s="25" t="s">
-        <v>23</v>
       </c>
       <c r="I27" s="31"/>
       <c r="J27" s="31"/>
       <c r="K27" s="31"/>
-      <c r="L27" s="49"/>
-    </row>
-    <row r="28" customFormat="1" ht="56" customHeight="1" spans="1:12">
+      <c r="L27" s="48"/>
+    </row>
+    <row r="28" customFormat="1" ht="52" customHeight="1" spans="1:12">
       <c r="A28" s="26"/>
       <c r="B28" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="28"/>
+        <v>29</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>64</v>
+      </c>
       <c r="D28" s="29"/>
       <c r="E28" s="29"/>
       <c r="F28" s="29"/>
@@ -2636,77 +2704,77 @@
       <c r="I28" s="29"/>
       <c r="J28" s="29"/>
       <c r="K28" s="29"/>
-      <c r="L28" s="50"/>
-    </row>
-    <row r="29" customFormat="1" ht="18" customHeight="1" spans="1:12">
+      <c r="L28" s="49"/>
+    </row>
+    <row r="29" customFormat="1" ht="22" customHeight="1" spans="1:12">
       <c r="A29" s="30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F29" s="24" t="s">
-        <v>42</v>
+      <c r="E29" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>66</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H29" s="31"/>
       <c r="I29" s="31"/>
       <c r="J29" s="31"/>
       <c r="K29" s="31"/>
-      <c r="L29" s="49"/>
-    </row>
-    <row r="30" customFormat="1" ht="18" customHeight="1" spans="1:12">
+      <c r="L29" s="48"/>
+    </row>
+    <row r="30" customFormat="1" ht="21" customHeight="1" spans="1:12">
       <c r="A30" s="16"/>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="J30" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="K30" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="G30" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="H30" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="I30" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="J30" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="K30" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="L30" s="49"/>
-    </row>
-    <row r="31" customFormat="1" ht="41" customHeight="1" spans="1:12">
+      <c r="L30" s="48"/>
+    </row>
+    <row r="31" customFormat="1" ht="46" customHeight="1" spans="1:12">
       <c r="A31" s="26"/>
       <c r="B31" s="27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D31" s="29"/>
       <c r="E31" s="29"/>
@@ -2716,73 +2784,73 @@
       <c r="I31" s="29"/>
       <c r="J31" s="29"/>
       <c r="K31" s="29"/>
-      <c r="L31" s="50"/>
-    </row>
-    <row r="32" customFormat="1" ht="18" customHeight="1" spans="1:12">
+      <c r="L31" s="49"/>
+    </row>
+    <row r="32" customFormat="1" ht="21" customHeight="1" spans="1:12">
       <c r="A32" s="30" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F32" s="24" t="s">
-        <v>50</v>
+      <c r="E32" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>69</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H32" s="31"/>
       <c r="I32" s="31"/>
       <c r="J32" s="31"/>
       <c r="K32" s="31"/>
-      <c r="L32" s="49"/>
-    </row>
-    <row r="33" customFormat="1" ht="18" customHeight="1" spans="1:12">
+      <c r="L32" s="48"/>
+    </row>
+    <row r="33" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A33" s="16"/>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="H33" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="I33" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F33" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="G33" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="H33" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="I33" s="25" t="s">
-        <v>23</v>
       </c>
       <c r="J33" s="31"/>
       <c r="K33" s="31"/>
-      <c r="L33" s="49"/>
-    </row>
-    <row r="34" customFormat="1" ht="46" customHeight="1" spans="1:12">
+      <c r="L33" s="48"/>
+    </row>
+    <row r="34" customFormat="1" ht="48" customHeight="1" spans="1:12">
       <c r="A34" s="26"/>
       <c r="B34" s="27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D34" s="29"/>
       <c r="E34" s="29"/>
@@ -2792,77 +2860,77 @@
       <c r="I34" s="29"/>
       <c r="J34" s="29"/>
       <c r="K34" s="29"/>
-      <c r="L34" s="50"/>
+      <c r="L34" s="49"/>
     </row>
     <row r="35" customFormat="1" ht="18" customHeight="1" spans="1:12">
       <c r="A35" s="30" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E35" s="33" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F35" s="33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G35" s="33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H35" s="33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I35" s="33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J35" s="33"/>
       <c r="K35" s="33"/>
-      <c r="L35" s="51"/>
-    </row>
-    <row r="36" customFormat="1" ht="19" customHeight="1" spans="1:12">
+      <c r="L35" s="50"/>
+    </row>
+    <row r="36" customFormat="1" ht="22" customHeight="1" spans="1:12">
       <c r="A36" s="16"/>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G36" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="H36" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D36" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="G36" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="H36" s="25" t="s">
-        <v>23</v>
-      </c>
       <c r="I36" s="31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J36" s="31"/>
       <c r="K36" s="31"/>
-      <c r="L36" s="49"/>
-    </row>
-    <row r="37" customFormat="1" ht="29" customHeight="1" spans="1:12">
+      <c r="L36" s="48"/>
+    </row>
+    <row r="37" customFormat="1" ht="33" customHeight="1" spans="1:12">
       <c r="A37" s="26"/>
       <c r="B37" s="27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D37" s="29"/>
       <c r="E37" s="29"/>
@@ -2872,73 +2940,73 @@
       <c r="I37" s="29"/>
       <c r="J37" s="29"/>
       <c r="K37" s="29"/>
-      <c r="L37" s="50"/>
-    </row>
-    <row r="38" customFormat="1" ht="18" customHeight="1" spans="1:12">
+      <c r="L37" s="49"/>
+    </row>
+    <row r="38" customFormat="1" ht="21" customHeight="1" spans="1:12">
       <c r="A38" s="30" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E38" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F38" s="24" t="s">
-        <v>72</v>
+      <c r="E38" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>77</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H38" s="31"/>
       <c r="I38" s="31"/>
       <c r="J38" s="31"/>
       <c r="K38" s="31"/>
-      <c r="L38" s="49"/>
-    </row>
-    <row r="39" customFormat="1" ht="21" customHeight="1" spans="1:12">
+      <c r="L38" s="48"/>
+    </row>
+    <row r="39" customFormat="1" ht="24" customHeight="1" spans="1:12">
       <c r="A39" s="16"/>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="G39" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="H39" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D39" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E39" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F39" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="G39" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="H39" s="25" t="s">
-        <v>23</v>
       </c>
       <c r="I39" s="31"/>
       <c r="J39" s="31"/>
       <c r="K39" s="31"/>
-      <c r="L39" s="49" t="s">
-        <v>74</v>
+      <c r="L39" s="48" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="40" customFormat="1" ht="38" customHeight="1" spans="1:12">
       <c r="A40" s="26"/>
       <c r="B40" s="27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D40" s="29"/>
       <c r="E40" s="29"/>
@@ -2948,73 +3016,73 @@
       <c r="I40" s="29"/>
       <c r="J40" s="29"/>
       <c r="K40" s="29"/>
-      <c r="L40" s="50"/>
+      <c r="L40" s="49"/>
     </row>
     <row r="41" customFormat="1" ht="22" customHeight="1" spans="1:12">
       <c r="A41" s="30" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D41" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E41" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F41" s="24" t="s">
-        <v>77</v>
+      <c r="E41" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" s="20" t="s">
+        <v>82</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H41" s="31"/>
       <c r="I41" s="31"/>
       <c r="J41" s="31"/>
       <c r="K41" s="31"/>
-      <c r="L41" s="49"/>
+      <c r="L41" s="48"/>
     </row>
     <row r="42" customFormat="1" ht="21" customHeight="1" spans="1:12">
       <c r="A42" s="16"/>
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G42" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="H42" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D42" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E42" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F42" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="G42" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="H42" s="25" t="s">
-        <v>23</v>
       </c>
       <c r="I42" s="31"/>
       <c r="J42" s="31"/>
       <c r="K42" s="31"/>
-      <c r="L42" s="49" t="s">
-        <v>74</v>
+      <c r="L42" s="48" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="43" customFormat="1" ht="34" customHeight="1" spans="1:12">
       <c r="A43" s="26"/>
       <c r="B43" s="27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C43" s="28" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D43" s="29"/>
       <c r="E43" s="29"/>
@@ -3024,75 +3092,75 @@
       <c r="I43" s="29"/>
       <c r="J43" s="29"/>
       <c r="K43" s="29"/>
-      <c r="L43" s="50"/>
+      <c r="L43" s="49"/>
     </row>
     <row r="44" customFormat="1" ht="21" customHeight="1" spans="1:12">
       <c r="A44" s="30" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D44" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E44" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F44" s="24" t="s">
-        <v>81</v>
+      <c r="E44" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44" s="20" t="s">
+        <v>86</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H44" s="31"/>
       <c r="I44" s="31"/>
       <c r="J44" s="31"/>
       <c r="K44" s="31"/>
-      <c r="L44" s="49"/>
+      <c r="L44" s="48"/>
     </row>
     <row r="45" customFormat="1" ht="21" customHeight="1" spans="1:12">
       <c r="A45" s="16"/>
-      <c r="B45" s="21" t="s">
+      <c r="B45" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G45" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="H45" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="I45" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="C45" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="D45" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F45" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="G45" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="H45" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="I45" s="25" t="s">
-        <v>23</v>
       </c>
       <c r="J45" s="31"/>
       <c r="K45" s="31"/>
-      <c r="L45" s="49" t="s">
-        <v>74</v>
+      <c r="L45" s="48" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="46" customFormat="1" ht="44" customHeight="1" spans="1:12">
       <c r="A46" s="26"/>
       <c r="B46" s="27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D46" s="29"/>
       <c r="E46" s="29"/>
@@ -3102,17 +3170,17 @@
       <c r="I46" s="29"/>
       <c r="J46" s="29"/>
       <c r="K46" s="29"/>
-      <c r="L46" s="50"/>
+      <c r="L46" s="49"/>
     </row>
     <row r="47" customFormat="1" ht="21" customHeight="1" spans="1:12">
       <c r="A47" s="30" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C47" s="32" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D47" s="33"/>
       <c r="E47" s="33"/>
@@ -3122,43 +3190,43 @@
       <c r="I47" s="33"/>
       <c r="J47" s="33"/>
       <c r="K47" s="33"/>
-      <c r="L47" s="51"/>
+      <c r="L47" s="50"/>
     </row>
     <row r="48" customFormat="1" ht="21" customHeight="1" spans="1:12">
       <c r="A48" s="16"/>
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="G48" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="C48" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D48" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E48" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="F48" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="G48" s="25" t="s">
-        <v>23</v>
       </c>
       <c r="H48" s="31"/>
       <c r="I48" s="31"/>
       <c r="J48" s="31"/>
       <c r="K48" s="31"/>
-      <c r="L48" s="49" t="s">
-        <v>74</v>
+      <c r="L48" s="48" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="49" customFormat="1" ht="34" customHeight="1" spans="1:12">
       <c r="A49" s="26"/>
       <c r="B49" s="27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C49" s="28" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D49" s="29"/>
       <c r="E49" s="29"/>
@@ -3168,71 +3236,71 @@
       <c r="I49" s="29"/>
       <c r="J49" s="29"/>
       <c r="K49" s="29"/>
-      <c r="L49" s="50"/>
+      <c r="L49" s="49"/>
     </row>
     <row r="50" customFormat="1" ht="21" customHeight="1" spans="1:12">
       <c r="A50" s="30" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C50" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D50" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E50" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="F50" s="24" t="s">
-        <v>90</v>
+        <v>16</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="F50" s="20" t="s">
+        <v>95</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H50" s="31"/>
       <c r="I50" s="31"/>
       <c r="J50" s="31"/>
       <c r="K50" s="31"/>
-      <c r="L50" s="49"/>
+      <c r="L50" s="48"/>
     </row>
     <row r="51" customFormat="1" ht="21" customHeight="1" spans="1:12">
       <c r="A51" s="16"/>
-      <c r="B51" s="21" t="s">
+      <c r="B51" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D51" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="F51" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="G51" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="C51" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D51" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E51" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="F51" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="G51" s="25" t="s">
-        <v>23</v>
       </c>
       <c r="H51" s="31"/>
       <c r="I51" s="31"/>
       <c r="J51" s="31"/>
       <c r="K51" s="31"/>
-      <c r="L51" s="49" t="s">
-        <v>74</v>
+      <c r="L51" s="48" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="52" customFormat="1" ht="28" customHeight="1" spans="1:12">
       <c r="A52" s="26"/>
       <c r="B52" s="27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C52" s="28" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D52" s="29"/>
       <c r="E52" s="29"/>
@@ -3242,75 +3310,75 @@
       <c r="I52" s="29"/>
       <c r="J52" s="29"/>
       <c r="K52" s="29"/>
-      <c r="L52" s="50"/>
+      <c r="L52" s="49"/>
     </row>
     <row r="53" customFormat="1" ht="21" customHeight="1" spans="1:12">
       <c r="A53" s="30" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B53" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C53" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D53" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E53" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="F53" s="24" t="s">
-        <v>93</v>
+        <v>16</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="F53" s="20" t="s">
+        <v>98</v>
       </c>
       <c r="G53" s="24" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I53" s="31"/>
       <c r="J53" s="31"/>
       <c r="K53" s="31"/>
-      <c r="L53" s="49"/>
+      <c r="L53" s="48"/>
     </row>
     <row r="54" customFormat="1" ht="21" customHeight="1" spans="1:12">
       <c r="A54" s="16"/>
-      <c r="B54" s="21" t="s">
+      <c r="B54" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="F54" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="G54" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="H54" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="C54" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D54" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E54" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="F54" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="G54" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="H54" s="25" t="s">
-        <v>23</v>
       </c>
       <c r="I54" s="31"/>
       <c r="J54" s="31"/>
       <c r="K54" s="31"/>
-      <c r="L54" s="49" t="s">
-        <v>74</v>
+      <c r="L54" s="48" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="55" customFormat="1" ht="32" customHeight="1" spans="1:12">
       <c r="A55" s="26"/>
       <c r="B55" s="34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C55" s="35" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D55" s="36"/>
       <c r="E55" s="36"/>
@@ -3320,7 +3388,7 @@
       <c r="I55" s="36"/>
       <c r="J55" s="36"/>
       <c r="K55" s="36"/>
-      <c r="L55" s="52"/>
+      <c r="L55" s="51"/>
     </row>
     <row r="80" ht="13" customHeight="1"/>
     <row r="81" hidden="1"/>
@@ -3372,7 +3440,7 @@
     <mergeCell ref="I1:K2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="120" orientation="portrait" horizontalDpi="600"/>
+  <pageSetup paperSize="9" scale="125" orientation="portrait" horizontalDpi="600"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Chain_Joystick/M5Stack-Chain-Joystick-通讯协议-V1.xlsx
+++ b/Chain_Joystick/M5Stack-Chain-Joystick-通讯协议-V1.xlsx
@@ -60,7 +60,7 @@
     <t>Data1</t>
   </si>
   <si>
-    <t xml:space="preserve">data2 </t>
+    <t xml:space="preserve">Data2 </t>
   </si>
   <si>
     <t>Data3</t>
@@ -433,17 +433,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="10">
+  <numFmts count="7">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="\ \ \ \ \ \ \ \ \ \ \ \ \ \ \ \ \ \ \ \ @"/>
-    <numFmt numFmtId="177" formatCode="\ \ \ \ \ \ 0_ "/>
-    <numFmt numFmtId="178" formatCode="0_ "/>
-    <numFmt numFmtId="179" formatCode="\ \ \ \ \ \ \ \ \ \ \ 0_ "/>
-    <numFmt numFmtId="180" formatCode="\ \ \ \ \ \ \ \ \ \ \ \ 0_ "/>
-    <numFmt numFmtId="181" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1468,7 +1465,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1491,16 +1488,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1529,10 +1517,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1541,10 +1529,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1562,7 +1550,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1595,7 +1583,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1604,16 +1592,16 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1948,8 +1936,8 @@
   </sheetPr>
   <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49:L49"/>
+    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2833333333333" defaultRowHeight="14.25"/>
@@ -1979,12 +1967,12 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="39" t="s">
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="36" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1997,10 +1985,10 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="42">
+      <c r="I2" s="37"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="39">
         <v>45576</v>
       </c>
     </row>
@@ -2014,1381 +2002,1381 @@
       <c r="C3" s="7">
         <v>0</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>1</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="7">
         <v>2</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="7">
         <v>3</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <v>4</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="7">
         <v>5</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="7">
         <v>6</v>
       </c>
-      <c r="J3" s="43">
+      <c r="J3" s="40">
         <v>7</v>
       </c>
-      <c r="K3" s="43">
+      <c r="K3" s="40">
         <v>8</v>
       </c>
-      <c r="L3" s="44">
+      <c r="L3" s="41">
         <v>9</v>
       </c>
     </row>
     <row r="4" ht="10.3" customHeight="1" spans="1:12">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="22" customHeight="1" spans="1:12">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="45" t="s">
+      <c r="J5" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="46"/>
-      <c r="L5" s="47"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="44"/>
     </row>
     <row r="6" customFormat="1" ht="21" customHeight="1" spans="1:12">
-      <c r="A6" s="16"/>
-      <c r="B6" s="22" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="48"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="45"/>
     </row>
     <row r="7" customFormat="1" ht="51" customHeight="1" spans="1:12">
-      <c r="A7" s="26"/>
-      <c r="B7" s="27" t="s">
+      <c r="A7" s="23"/>
+      <c r="B7" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="49"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="46"/>
     </row>
     <row r="8" customFormat="1" ht="22" customHeight="1" spans="1:12">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="31" t="s">
+      <c r="H8" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="31" t="s">
+      <c r="I8" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="48"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="45"/>
     </row>
     <row r="9" customFormat="1" ht="25" customHeight="1" spans="1:12">
-      <c r="A9" s="16"/>
-      <c r="B9" s="22" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="I9" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="25" t="s">
+      <c r="J9" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="31"/>
-      <c r="L9" s="48"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="45"/>
     </row>
     <row r="10" customFormat="1" ht="37" customHeight="1" spans="1:12">
-      <c r="A10" s="26"/>
-      <c r="B10" s="27" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="49"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="46"/>
     </row>
     <row r="11" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="31" t="s">
+      <c r="I11" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="48"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="45"/>
     </row>
     <row r="12" customFormat="1" ht="24" customHeight="1" spans="1:12">
-      <c r="A12" s="16"/>
-      <c r="B12" s="22" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="G12" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="31" t="s">
+      <c r="I12" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="48"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="45"/>
     </row>
     <row r="13" customFormat="1" ht="63" customHeight="1" spans="1:12">
-      <c r="A13" s="26"/>
-      <c r="B13" s="27" t="s">
+      <c r="A13" s="23"/>
+      <c r="B13" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="49"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="46"/>
     </row>
     <row r="14" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="25" t="s">
+      <c r="G14" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="31" t="s">
+      <c r="H14" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="31" t="s">
+      <c r="I14" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="48"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="45"/>
     </row>
     <row r="15" customFormat="1" ht="20" customHeight="1" spans="1:12">
-      <c r="A15" s="16"/>
-      <c r="B15" s="22" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="G15" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="25" t="s">
+      <c r="H15" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="31" t="s">
+      <c r="I15" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="48"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="45"/>
     </row>
     <row r="16" customFormat="1" ht="36" customHeight="1" spans="1:12">
-      <c r="A16" s="26"/>
-      <c r="B16" s="27" t="s">
+      <c r="A16" s="23"/>
+      <c r="B16" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="49"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="46"/>
     </row>
     <row r="17" customFormat="1" ht="22" customHeight="1" spans="1:12">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="G17" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="48"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="45"/>
     </row>
     <row r="18" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A18" s="16"/>
-      <c r="B18" s="22" t="s">
+      <c r="A18" s="13"/>
+      <c r="B18" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="24" t="s">
+      <c r="G18" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="H18" s="24" t="s">
+      <c r="H18" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="I18" s="24" t="s">
+      <c r="I18" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="J18" s="24" t="s">
+      <c r="J18" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="K18" s="25" t="s">
+      <c r="K18" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="L18" s="48"/>
+      <c r="L18" s="45"/>
     </row>
     <row r="19" customFormat="1" ht="46" customHeight="1" spans="1:12">
-      <c r="A19" s="26"/>
-      <c r="B19" s="27" t="s">
+      <c r="A19" s="23"/>
+      <c r="B19" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="49"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="46"/>
     </row>
     <row r="20" customFormat="1" ht="22" customHeight="1" spans="1:12">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="48"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="45"/>
     </row>
     <row r="21" customFormat="1" ht="21" customHeight="1" spans="1:12">
-      <c r="A21" s="16"/>
-      <c r="B21" s="22" t="s">
+      <c r="A21" s="13"/>
+      <c r="B21" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="24" t="s">
+      <c r="G21" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="H21" s="24" t="s">
+      <c r="H21" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="25" t="s">
+      <c r="I21" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="48"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="45"/>
     </row>
     <row r="22" customFormat="1" ht="39" customHeight="1" spans="1:12">
-      <c r="A22" s="26"/>
-      <c r="B22" s="27" t="s">
+      <c r="A22" s="23"/>
+      <c r="B22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="49"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="46"/>
     </row>
     <row r="23" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="25" t="s">
+      <c r="G23" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="48"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="45"/>
     </row>
     <row r="24" customFormat="1" ht="18" customHeight="1" spans="1:12">
-      <c r="A24" s="16"/>
-      <c r="B24" s="22" t="s">
+      <c r="A24" s="13"/>
+      <c r="B24" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="G24" s="24" t="s">
+      <c r="G24" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="H24" s="25" t="s">
+      <c r="H24" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="48"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="45"/>
     </row>
     <row r="25" customFormat="1" ht="185" customHeight="1" spans="1:12">
-      <c r="A25" s="26"/>
-      <c r="B25" s="27" t="s">
+      <c r="A25" s="23"/>
+      <c r="B25" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="49"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="46"/>
     </row>
     <row r="26" customFormat="1" ht="21" customHeight="1" spans="1:12">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="G26" s="24" t="s">
+      <c r="G26" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="H26" s="25" t="s">
+      <c r="H26" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="48"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="45"/>
     </row>
     <row r="27" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A27" s="16"/>
-      <c r="B27" s="22" t="s">
+      <c r="A27" s="13"/>
+      <c r="B27" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="G27" s="24" t="s">
+      <c r="G27" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="H27" s="25" t="s">
+      <c r="H27" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="48"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="45"/>
     </row>
     <row r="28" customFormat="1" ht="52" customHeight="1" spans="1:12">
-      <c r="A28" s="26"/>
-      <c r="B28" s="27" t="s">
+      <c r="A28" s="23"/>
+      <c r="B28" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="49"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="46"/>
     </row>
     <row r="29" customFormat="1" ht="22" customHeight="1" spans="1:12">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="20" t="s">
+      <c r="F29" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="G29" s="25" t="s">
+      <c r="G29" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="48"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="45"/>
     </row>
     <row r="30" customFormat="1" ht="21" customHeight="1" spans="1:12">
-      <c r="A30" s="16"/>
-      <c r="B30" s="22" t="s">
+      <c r="A30" s="13"/>
+      <c r="B30" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="E30" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="20" t="s">
+      <c r="F30" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="G30" s="24" t="s">
+      <c r="G30" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="H30" s="24" t="s">
+      <c r="H30" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="I30" s="24" t="s">
+      <c r="I30" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="J30" s="24" t="s">
+      <c r="J30" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="K30" s="25" t="s">
+      <c r="K30" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="L30" s="48"/>
+      <c r="L30" s="45"/>
     </row>
     <row r="31" customFormat="1" ht="46" customHeight="1" spans="1:12">
-      <c r="A31" s="26"/>
-      <c r="B31" s="27" t="s">
+      <c r="A31" s="23"/>
+      <c r="B31" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="49"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="46"/>
     </row>
     <row r="32" customFormat="1" ht="21" customHeight="1" spans="1:12">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F32" s="20" t="s">
+      <c r="F32" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G32" s="25" t="s">
+      <c r="G32" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="48"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="45"/>
     </row>
     <row r="33" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A33" s="16"/>
-      <c r="B33" s="22" t="s">
+      <c r="A33" s="13"/>
+      <c r="B33" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="19" t="s">
+      <c r="E33" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F33" s="20" t="s">
+      <c r="F33" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G33" s="24" t="s">
+      <c r="G33" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="H33" s="24" t="s">
+      <c r="H33" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="I33" s="25" t="s">
+      <c r="I33" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="48"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="45"/>
     </row>
     <row r="34" customFormat="1" ht="48" customHeight="1" spans="1:12">
-      <c r="A34" s="26"/>
-      <c r="B34" s="27" t="s">
+      <c r="A34" s="23"/>
+      <c r="B34" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="49"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="46"/>
     </row>
     <row r="35" customFormat="1" ht="18" customHeight="1" spans="1:12">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="33" t="s">
+      <c r="D35" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="33" t="s">
+      <c r="E35" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="F35" s="33" t="s">
+      <c r="F35" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="G35" s="33" t="s">
+      <c r="G35" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H35" s="33" t="s">
+      <c r="H35" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="I35" s="33" t="s">
+      <c r="I35" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="50"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="47"/>
     </row>
     <row r="36" customFormat="1" ht="22" customHeight="1" spans="1:12">
-      <c r="A36" s="16"/>
-      <c r="B36" s="22" t="s">
+      <c r="A36" s="13"/>
+      <c r="B36" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="23" t="s">
+      <c r="D36" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="19" t="s">
+      <c r="E36" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="20" t="s">
+      <c r="F36" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G36" s="24" t="s">
+      <c r="G36" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="H36" s="25" t="s">
+      <c r="H36" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="I36" s="31" t="s">
+      <c r="I36" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="48"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="45"/>
     </row>
     <row r="37" customFormat="1" ht="33" customHeight="1" spans="1:12">
-      <c r="A37" s="26"/>
-      <c r="B37" s="27" t="s">
+      <c r="A37" s="23"/>
+      <c r="B37" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="28" t="s">
+      <c r="C37" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="49"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="46"/>
     </row>
     <row r="38" customFormat="1" ht="21" customHeight="1" spans="1:12">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="B38" s="27" t="s">
+      <c r="B38" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D38" s="23" t="s">
+      <c r="D38" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E38" s="19" t="s">
+      <c r="E38" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F38" s="20" t="s">
+      <c r="F38" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="G38" s="25" t="s">
+      <c r="G38" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="48"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="45"/>
     </row>
     <row r="39" customFormat="1" ht="24" customHeight="1" spans="1:12">
-      <c r="A39" s="16"/>
-      <c r="B39" s="22" t="s">
+      <c r="A39" s="13"/>
+      <c r="B39" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D39" s="23" t="s">
+      <c r="D39" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E39" s="19" t="s">
+      <c r="E39" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F39" s="20" t="s">
+      <c r="F39" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="G39" s="24" t="s">
+      <c r="G39" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="H39" s="25" t="s">
+      <c r="H39" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="48" t="s">
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="45" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="40" customFormat="1" ht="38" customHeight="1" spans="1:12">
-      <c r="A40" s="26"/>
-      <c r="B40" s="27" t="s">
+      <c r="A40" s="23"/>
+      <c r="B40" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C40" s="28" t="s">
+      <c r="C40" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="29"/>
-      <c r="L40" s="49"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="46"/>
     </row>
     <row r="41" customFormat="1" ht="22" customHeight="1" spans="1:12">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="B41" s="27" t="s">
+      <c r="B41" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="C41" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D41" s="23" t="s">
+      <c r="D41" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E41" s="19" t="s">
+      <c r="E41" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F41" s="20" t="s">
+      <c r="F41" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="G41" s="25" t="s">
+      <c r="G41" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="48"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="45"/>
     </row>
     <row r="42" customFormat="1" ht="21" customHeight="1" spans="1:12">
-      <c r="A42" s="16"/>
-      <c r="B42" s="22" t="s">
+      <c r="A42" s="13"/>
+      <c r="B42" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C42" s="23" t="s">
+      <c r="C42" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D42" s="23" t="s">
+      <c r="D42" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E42" s="19" t="s">
+      <c r="E42" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F42" s="20" t="s">
+      <c r="F42" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="G42" s="24" t="s">
+      <c r="G42" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="H42" s="25" t="s">
+      <c r="H42" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="48" t="s">
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="45" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="43" customFormat="1" ht="34" customHeight="1" spans="1:12">
-      <c r="A43" s="26"/>
-      <c r="B43" s="27" t="s">
+      <c r="A43" s="23"/>
+      <c r="B43" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C43" s="28" t="s">
+      <c r="C43" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="49"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="46"/>
     </row>
     <row r="44" customFormat="1" ht="21" customHeight="1" spans="1:12">
-      <c r="A44" s="30" t="s">
+      <c r="A44" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="27" t="s">
+      <c r="B44" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="23" t="s">
+      <c r="C44" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="23" t="s">
+      <c r="D44" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E44" s="19" t="s">
+      <c r="E44" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F44" s="20" t="s">
+      <c r="F44" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="G44" s="25" t="s">
+      <c r="G44" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="31"/>
-      <c r="K44" s="31"/>
-      <c r="L44" s="48"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="45"/>
     </row>
     <row r="45" customFormat="1" ht="21" customHeight="1" spans="1:12">
-      <c r="A45" s="16"/>
-      <c r="B45" s="22" t="s">
+      <c r="A45" s="13"/>
+      <c r="B45" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="23" t="s">
+      <c r="C45" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="23" t="s">
+      <c r="D45" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E45" s="19" t="s">
+      <c r="E45" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F45" s="20" t="s">
+      <c r="F45" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="G45" s="24" t="s">
+      <c r="G45" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="H45" s="24" t="s">
+      <c r="H45" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="I45" s="25" t="s">
+      <c r="I45" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="J45" s="31"/>
-      <c r="K45" s="31"/>
-      <c r="L45" s="48" t="s">
+      <c r="J45" s="28"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="45" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="46" customFormat="1" ht="44" customHeight="1" spans="1:12">
-      <c r="A46" s="26"/>
-      <c r="B46" s="27" t="s">
+      <c r="A46" s="23"/>
+      <c r="B46" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="28" t="s">
+      <c r="C46" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="29"/>
-      <c r="L46" s="49"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="46"/>
     </row>
     <row r="47" customFormat="1" ht="21" customHeight="1" spans="1:12">
-      <c r="A47" s="30" t="s">
+      <c r="A47" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="32" t="s">
+      <c r="C47" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="D47" s="33"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="33"/>
-      <c r="J47" s="33"/>
-      <c r="K47" s="33"/>
-      <c r="L47" s="50"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="30"/>
+      <c r="L47" s="47"/>
     </row>
     <row r="48" customFormat="1" ht="21" customHeight="1" spans="1:12">
-      <c r="A48" s="16"/>
-      <c r="B48" s="22" t="s">
+      <c r="A48" s="13"/>
+      <c r="B48" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C48" s="23" t="s">
+      <c r="C48" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D48" s="23" t="s">
+      <c r="D48" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E48" s="19" t="s">
+      <c r="E48" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F48" s="20" t="s">
+      <c r="F48" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="G48" s="25" t="s">
+      <c r="G48" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H48" s="31"/>
-      <c r="I48" s="31"/>
-      <c r="J48" s="31"/>
-      <c r="K48" s="31"/>
-      <c r="L48" s="48" t="s">
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="45" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="49" customFormat="1" ht="34" customHeight="1" spans="1:12">
-      <c r="A49" s="26"/>
-      <c r="B49" s="27" t="s">
+      <c r="A49" s="23"/>
+      <c r="B49" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="28" t="s">
+      <c r="C49" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="29"/>
-      <c r="J49" s="29"/>
-      <c r="K49" s="29"/>
-      <c r="L49" s="49"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="46"/>
     </row>
     <row r="50" customFormat="1" ht="21" customHeight="1" spans="1:12">
-      <c r="A50" s="30" t="s">
+      <c r="A50" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="B50" s="27" t="s">
+      <c r="B50" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C50" s="23" t="s">
+      <c r="C50" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D50" s="23" t="s">
+      <c r="D50" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E50" s="19" t="s">
+      <c r="E50" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="F50" s="20" t="s">
+      <c r="F50" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="G50" s="25" t="s">
+      <c r="G50" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H50" s="31"/>
-      <c r="I50" s="31"/>
-      <c r="J50" s="31"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="48"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="45"/>
     </row>
     <row r="51" customFormat="1" ht="21" customHeight="1" spans="1:12">
-      <c r="A51" s="16"/>
-      <c r="B51" s="22" t="s">
+      <c r="A51" s="13"/>
+      <c r="B51" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C51" s="23" t="s">
+      <c r="C51" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D51" s="23" t="s">
+      <c r="D51" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E51" s="19" t="s">
+      <c r="E51" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="F51" s="20" t="s">
+      <c r="F51" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="G51" s="25" t="s">
+      <c r="G51" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="31"/>
-      <c r="K51" s="31"/>
-      <c r="L51" s="48" t="s">
+      <c r="H51" s="28"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="45" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="52" customFormat="1" ht="28" customHeight="1" spans="1:12">
-      <c r="A52" s="26"/>
-      <c r="B52" s="27" t="s">
+      <c r="A52" s="23"/>
+      <c r="B52" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C52" s="28" t="s">
+      <c r="C52" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="29"/>
-      <c r="K52" s="29"/>
-      <c r="L52" s="49"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="26"/>
+      <c r="L52" s="46"/>
     </row>
     <row r="53" customFormat="1" ht="21" customHeight="1" spans="1:12">
-      <c r="A53" s="30" t="s">
+      <c r="A53" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="B53" s="27" t="s">
+      <c r="B53" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C53" s="23" t="s">
+      <c r="C53" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D53" s="23" t="s">
+      <c r="D53" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E53" s="19" t="s">
+      <c r="E53" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="F53" s="20" t="s">
+      <c r="F53" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="G53" s="24" t="s">
+      <c r="G53" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="H53" s="25" t="s">
+      <c r="H53" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="I53" s="31"/>
-      <c r="J53" s="31"/>
-      <c r="K53" s="31"/>
-      <c r="L53" s="48"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="45"/>
     </row>
     <row r="54" customFormat="1" ht="21" customHeight="1" spans="1:12">
-      <c r="A54" s="16"/>
-      <c r="B54" s="22" t="s">
+      <c r="A54" s="13"/>
+      <c r="B54" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C54" s="23" t="s">
+      <c r="C54" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D54" s="23" t="s">
+      <c r="D54" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E54" s="19" t="s">
+      <c r="E54" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="F54" s="20" t="s">
+      <c r="F54" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="G54" s="24" t="s">
+      <c r="G54" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="H54" s="25" t="s">
+      <c r="H54" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="I54" s="31"/>
-      <c r="J54" s="31"/>
-      <c r="K54" s="31"/>
-      <c r="L54" s="48" t="s">
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="45" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="55" customFormat="1" ht="32" customHeight="1" spans="1:12">
-      <c r="A55" s="26"/>
-      <c r="B55" s="34" t="s">
+      <c r="A55" s="23"/>
+      <c r="B55" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C55" s="35" t="s">
+      <c r="C55" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="D55" s="36"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="36"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="36"/>
-      <c r="J55" s="36"/>
-      <c r="K55" s="36"/>
-      <c r="L55" s="51"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="33"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="48"/>
     </row>
     <row r="80" ht="13" customHeight="1"/>
     <row r="81" hidden="1"/>
